--- a/csv/nn/nn_pc15_decayopt.xlsx
+++ b/csv/nn/nn_pc15_decayopt.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>size</t>
   </si>
@@ -29,111 +29,117 @@
     <t>sd</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -242,9 +248,6 @@
     <t>70</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
@@ -345,9 +348,6 @@
   </si>
   <si>
     <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
   </si>
   <si>
     <t>107</t>
@@ -550,16 +550,33 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34</v>
+        <v>0.71</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18981481481481483</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06190560981646955</v>
+        <v>0.10356306601281805</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07401618108041239</v>
       </c>
     </row>
   </sheetData>
@@ -592,19 +609,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34</v>
+        <v>1.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18981481481481483</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06190560981646955</v>
+        <v>0.07401618108041239</v>
       </c>
     </row>
   </sheetData>
@@ -623,15 +640,23 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.18981481481481483</v>
+        <v>0.18055555555555555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.18055555555555555</v>
       </c>
     </row>
   </sheetData>
@@ -664,560 +689,560 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06514466333088097</v>
+        <v>0.10782167872599731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06972166887783962</v>
+        <v>0.08002700161604408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.03</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04864416865393962</v>
+        <v>0.04088778178855486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.27314814814814814</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07607257743127308</v>
+        <v>0.06897992789699695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06897992789699695</v>
+        <v>0.06804138174397717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3287037037037037</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0643501864959039</v>
+        <v>0.08130241266116739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3287037037037037</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03247347762361144</v>
+        <v>0.0908634846322007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.08</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3055555555555555</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06573421981221796</v>
+        <v>0.06728111897994427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.09</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3194444444444445</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.048907824615719464</v>
+        <v>0.08177556357710969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="E11" t="n">
-        <v>0.051719407569514604</v>
+        <v>0.07172191381865586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05555555555555556</v>
+        <v>0.10306516377292134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C13" t="n">
         <v>0.12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3055555555555555</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.12044157438154887</v>
+        <v>0.0856168611523469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0817755635771097</v>
+        <v>0.05936044601786891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.27314814814814814</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06190560981646956</v>
+        <v>0.08501391800842985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C16" t="n">
         <v>0.15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04182070292828229</v>
+        <v>0.06252571487457086</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.24537037037037035</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0517194075695146</v>
+        <v>0.08317886919065076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C18" t="n">
         <v>0.17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04784448401023634</v>
+        <v>0.08857002995235644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C19" t="n">
         <v>0.18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01756820922315767</v>
+        <v>0.12422599874998831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C20" t="n">
         <v>0.19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02868876552746236</v>
+        <v>0.07986614315869565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C21" t="n">
         <v>0.2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08130241266116738</v>
+        <v>0.05826715823167508</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C22" t="n">
         <v>0.21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08784104611578832</v>
+        <v>0.0837950173833242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C23" t="n">
         <v>0.22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E23" t="n">
-        <v>0.049690399499995326</v>
+        <v>0.08364140585656456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09582326839255745</v>
+        <v>0.07384222976806254</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C25" t="n">
         <v>0.24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E25" t="n">
-        <v>0.052704627669473</v>
+        <v>0.05462178223612083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05171940756951459</v>
+        <v>0.06728111897994427</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2824074074074074</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07741316654103142</v>
+        <v>0.1045517573207057</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04648111258522643</v>
+        <v>0.08002700161604408</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E29" t="n">
-        <v>0.05391083936299867</v>
+        <v>0.07607257743127308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.28703703703703703</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07172191381865588</v>
+        <v>0.0940624081422244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04648111258522642</v>
+        <v>0.054621782236120846</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04648111258522643</v>
+        <v>0.05196746370519364</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E33" t="n">
-        <v>0.022680460581325734</v>
+        <v>0.08364140585656454</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C34" t="n">
         <v>0.33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E34" t="n">
         <v>0.08379501738332419</v>
@@ -1225,44 +1250,44 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.18981481481481483</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06190560981646955</v>
+        <v>0.06190560981646956</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05737753105492469</v>
+        <v>0.04450227718777007</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.36</v>
@@ -1271,185 +1296,185 @@
         <v>0.25</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07027283689263066</v>
+        <v>0.06573421981221796</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C38" t="n">
         <v>0.37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05760122598146589</v>
+        <v>0.054621782236120846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C39" t="n">
         <v>0.38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04536092116265145</v>
+        <v>0.09847081830478088</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>0.029133579115837548</v>
+        <v>0.08240220541217404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.4</v>
       </c>
       <c r="D41" t="n">
-        <v>0.24537037037037035</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08501391800842983</v>
+        <v>0.08501391800842986</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07590333900710815</v>
+        <v>0.08784104611578832</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C43" t="n">
         <v>0.42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E43" t="n">
-        <v>0.055555555555555566</v>
+        <v>0.06022078719077444</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07331789961047835</v>
+        <v>0.08364140585656456</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.27314814814814814</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05826715823167509</v>
+        <v>0.07938161203464003</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C46" t="n">
         <v>0.45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05462178223612083</v>
+        <v>0.06747198778606177</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C47" t="n">
         <v>0.46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.30092592592592593</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04784448401023634</v>
+        <v>0.07384222976806254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C48" t="n">
         <v>0.47</v>
@@ -1458,117 +1483,117 @@
         <v>0.2361111111111111</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05196746370519364</v>
+        <v>0.06514466333088097</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C49" t="n">
         <v>0.48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06334307917217433</v>
+        <v>0.06897992789699695</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C50" t="n">
         <v>0.49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0600068583185913</v>
+        <v>0.07741316654103142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C51" t="n">
         <v>0.5</v>
       </c>
       <c r="D51" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02731089111806043</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C52" t="n">
         <v>0.51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.28703703703703703</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07790994062208381</v>
+        <v>0.1009216784699164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C53" t="n">
         <v>0.52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.19907407407407407</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0872534739954796</v>
+        <v>0.047844484010236346</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C54" t="n">
         <v>0.53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04890782461571947</v>
+        <v>0.07331789961047834</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C55" t="n">
         <v>0.54</v>
@@ -1577,508 +1602,508 @@
         <v>0.2175925925925926</v>
       </c>
       <c r="E55" t="n">
-        <v>0.056701151453314315</v>
+        <v>0.0774131665410314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C56" t="n">
         <v>0.55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E56" t="n">
-        <v>0.029133579115837548</v>
+        <v>0.08002700161604409</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C57" t="n">
         <v>0.56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.28240740740740744</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03247347762361145</v>
+        <v>0.05391083936299867</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C58" t="n">
         <v>0.57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E58" t="n">
-        <v>0.030429030972509243</v>
+        <v>0.04182070292828229</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C59" t="n">
         <v>0.58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.28703703703703703</v>
+        <v>0.20370370370370372</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04182070292828227</v>
+        <v>0.07790994062208383</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C60" t="n">
         <v>0.59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06022078719077445</v>
+        <v>0.07807482956975108</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C61" t="n">
         <v>0.6</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E61" t="n">
-        <v>0.05936044601786892</v>
+        <v>0.07590333900710815</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C62" t="n">
         <v>0.61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0940624081422244</v>
+        <v>0.08002700161604408</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C63" t="n">
         <v>0.62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06022078719077444</v>
+        <v>0.07243558228002944</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C64" t="n">
         <v>0.63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.19907407407407407</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05391083936299866</v>
+        <v>0.0509679960908255</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C65" t="n">
         <v>0.64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25</v>
+        <v>0.22685185185185183</v>
       </c>
       <c r="E65" t="n">
-        <v>0.030429030972509243</v>
+        <v>0.07118196701400951</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C66" t="n">
         <v>0.65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.28240740740740744</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04088778178855485</v>
+        <v>0.08914892519934008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C67" t="n">
         <v>0.66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.19907407407407407</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06897992789699693</v>
+        <v>0.07539334439193437</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C68" t="n">
         <v>0.67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E68" t="n">
-        <v>0.06252571487457086</v>
+        <v>0.07986614315869564</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C69" t="n">
         <v>0.68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E69" t="n">
-        <v>0.044502277187770056</v>
+        <v>0.05462178223612083</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C70" t="n">
         <v>0.69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.24537037037037035</v>
       </c>
       <c r="E70" t="n">
-        <v>0.057601225981465894</v>
+        <v>0.05670115145331431</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C71" t="n">
         <v>0.7</v>
       </c>
       <c r="D71" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E71" t="n">
-        <v>0.10306516377292134</v>
+        <v>0.06953697539080958</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B72" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C72" t="n">
         <v>0.71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E72" t="n">
-        <v>0.034020690871988585</v>
+        <v>0.10356306601281805</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C73" t="n">
         <v>0.72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02324055629261322</v>
+        <v>0.05936044601786891</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C74" t="n">
         <v>0.73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03247347762361146</v>
+        <v>0.07384222976806255</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C75" t="n">
         <v>0.74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07384222976806255</v>
+        <v>0.08501391800842985</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C76" t="n">
         <v>0.75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E76" t="n">
-        <v>0.042127085800286394</v>
+        <v>0.06334307917217433</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C77" t="n">
         <v>0.76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E77" t="n">
-        <v>0.12097426859688568</v>
+        <v>0.09198877190385032</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C78" t="n">
         <v>0.77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06573421981221796</v>
+        <v>0.08193267335418125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C79" t="n">
         <v>0.78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03928371006591931</v>
+        <v>0.04969039949999534</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C80" t="n">
         <v>0.79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.20370370370370372</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04864416865393962</v>
+        <v>0.06252571487457086</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C81" t="n">
         <v>0.8</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0600068583185913</v>
+        <v>0.06670523575676991</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C82" t="n">
         <v>0.81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07243558228002943</v>
+        <v>0.07384222976806254</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C83" t="n">
         <v>0.82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.19907407407407407</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E83" t="n">
-        <v>0.044502277187770056</v>
+        <v>0.09240722185092333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C84" t="n">
         <v>0.83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07331789961047834</v>
+        <v>0.08130241266116738</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C85" t="n">
         <v>0.84</v>
@@ -2087,219 +2112,219 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06972166887783963</v>
+        <v>0.08002700161604406</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C86" t="n">
         <v>0.85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.24537037037037035</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E86" t="n">
-        <v>0.06190560981646955</v>
+        <v>0.08130241266116738</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C87" t="n">
         <v>0.86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E87" t="n">
-        <v>0.06435018649590392</v>
+        <v>0.06953697539080958</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C88" t="n">
         <v>0.87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0649469552472229</v>
+        <v>0.06728111897994425</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C89" t="n">
         <v>0.88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04784448401023636</v>
+        <v>0.06670523575676991</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C90" t="n">
         <v>0.89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.24537037037037035</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05670115145331431</v>
+        <v>0.053910839362998654</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C91" t="n">
         <v>0.9</v>
       </c>
       <c r="D91" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04536092116265146</v>
+        <v>0.06747198778606177</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C92" t="n">
         <v>0.91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2824074074074074</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E92" t="n">
-        <v>0.07118196701400951</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C93" t="n">
         <v>0.92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03928371006591931</v>
+        <v>0.06514466333088097</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C94" t="n">
         <v>0.93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04784448401023634</v>
+        <v>0.08002700161604408</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C95" t="n">
         <v>0.94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03828902431136173</v>
+        <v>0.07384222976806254</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C96" t="n">
         <v>0.95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E96" t="n">
-        <v>0.06022078719077444</v>
+        <v>0.0774131665410314</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C97" t="n">
         <v>0.96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="E97" t="n">
-        <v>0.03364055948997215</v>
+        <v>0.04182070292828228</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C98" t="n">
         <v>0.97</v>
@@ -2308,160 +2333,160 @@
         <v>0.24074074074074076</v>
       </c>
       <c r="E98" t="n">
-        <v>0.03795166950355408</v>
+        <v>0.06953697539080958</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C99" t="n">
         <v>0.98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2546296296296296</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E99" t="n">
-        <v>0.06670523575676991</v>
+        <v>0.08364140585656456</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C100" t="n">
         <v>0.99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04890782461571948</v>
+        <v>0.06728111897994425</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C101" t="n">
         <v>1.0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E101" t="n">
-        <v>0.03828902431136174</v>
+        <v>0.07118196701400951</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C102" t="n">
         <v>1.01</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.18981481481481483</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0600068583185913</v>
+        <v>0.08130241266116738</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C103" t="n">
         <v>1.02</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01756820922315766</v>
+        <v>0.07172191381865588</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C104" t="n">
         <v>1.03</v>
       </c>
       <c r="D104" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E104" t="n">
-        <v>0.05462178223612083</v>
+        <v>0.08857002995235645</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C105" t="n">
         <v>1.04</v>
       </c>
       <c r="D105" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E105" t="n">
-        <v>0.07118196701400951</v>
+        <v>0.08501391800842985</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C106" t="n">
         <v>1.05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.20370370370370372</v>
       </c>
       <c r="E106" t="n">
-        <v>0.07590333900710813</v>
+        <v>0.0573775310549247</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="B107" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C107" t="n">
         <v>1.06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E107" t="n">
-        <v>0.04536092116265145</v>
+        <v>0.07401618108041239</v>
       </c>
     </row>
     <row r="108">
@@ -2469,16 +2494,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C108" t="n">
         <v>1.07</v>
       </c>
       <c r="D108" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E108" t="n">
-        <v>0.09072184232530289</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="109">
@@ -2486,7 +2511,7 @@
         <v>112</v>
       </c>
       <c r="B109" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C109" t="n">
         <v>1.08</v>
@@ -2495,7 +2520,7 @@
         <v>0.2175925925925926</v>
       </c>
       <c r="E109" t="n">
-        <v>0.050967996090825494</v>
+        <v>0.07741316654103142</v>
       </c>
     </row>
     <row r="110">
@@ -2503,16 +2528,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C110" t="n">
         <v>1.09</v>
       </c>
       <c r="D110" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E110" t="n">
-        <v>0.05462178223612084</v>
+        <v>0.04890782461571948</v>
       </c>
     </row>
     <row r="111">
@@ -2520,16 +2545,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C111" t="n">
         <v>1.1</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E111" t="n">
-        <v>0.020910351464141136</v>
+        <v>0.07856742013183861</v>
       </c>
     </row>
     <row r="112">
@@ -2537,16 +2562,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C112" t="n">
         <v>1.11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E112" t="n">
-        <v>0.022680460581325734</v>
+        <v>0.0774131665410314</v>
       </c>
     </row>
     <row r="113">
@@ -2554,16 +2579,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C113" t="n">
         <v>1.12</v>
       </c>
       <c r="D113" t="n">
-        <v>0.25</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E113" t="n">
-        <v>0.04648111258522643</v>
+        <v>0.061905609816469566</v>
       </c>
     </row>
     <row r="114">
@@ -2571,16 +2596,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C114" t="n">
         <v>1.13</v>
       </c>
       <c r="D114" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E114" t="n">
-        <v>0.06897992789699695</v>
+        <v>0.05737753105492469</v>
       </c>
     </row>
     <row r="115">
@@ -2588,16 +2613,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C115" t="n">
         <v>1.14</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.20370370370370372</v>
       </c>
       <c r="E115" t="n">
-        <v>0.048907824615719485</v>
+        <v>0.06728111897994427</v>
       </c>
     </row>
     <row r="116">
@@ -2605,16 +2630,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C116" t="n">
         <v>1.15</v>
       </c>
       <c r="D116" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E116" t="n">
-        <v>0.02268046058132572</v>
+        <v>0.0872534739954796</v>
       </c>
     </row>
     <row r="117">
@@ -2622,16 +2647,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C117" t="n">
         <v>1.16</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0643501864959039</v>
+        <v>0.060006858318591295</v>
       </c>
     </row>
     <row r="118">
@@ -2639,16 +2664,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C118" t="n">
         <v>1.17</v>
       </c>
       <c r="D118" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E118" t="n">
-        <v>0.06953697539080958</v>
+        <v>0.06897992789699693</v>
       </c>
     </row>
     <row r="119">
@@ -2656,16 +2681,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C119" t="n">
         <v>1.18</v>
       </c>
       <c r="D119" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E119" t="n">
-        <v>0.05391083936299866</v>
+        <v>0.06953697539080958</v>
       </c>
     </row>
     <row r="120">
@@ -2673,16 +2698,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C120" t="n">
         <v>1.19</v>
       </c>
       <c r="D120" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E120" t="n">
-        <v>0.05096799609082551</v>
+        <v>0.06728111897994425</v>
       </c>
     </row>
     <row r="121">
@@ -2690,16 +2715,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C121" t="n">
         <v>1.2</v>
       </c>
       <c r="D121" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.18981481481481483</v>
       </c>
       <c r="E121" t="n">
-        <v>0.04784448401023635</v>
+        <v>0.0774131665410314</v>
       </c>
     </row>
     <row r="122">
@@ -2707,16 +2732,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C122" t="n">
         <v>1.21</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E122" t="n">
-        <v>0.05196746370519364</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="123">
@@ -2724,16 +2749,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C123" t="n">
         <v>1.22</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E123" t="n">
-        <v>0.04450227718777007</v>
+        <v>0.05391083936299866</v>
       </c>
     </row>
     <row r="124">
@@ -2741,16 +2766,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C124" t="n">
         <v>1.23</v>
       </c>
       <c r="D124" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E124" t="n">
-        <v>0.06670523575676991</v>
+        <v>0.061905609816469545</v>
       </c>
     </row>
     <row r="125">
@@ -2758,16 +2783,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C125" t="n">
         <v>1.24</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03928371006591931</v>
+        <v>0.08364140585656456</v>
       </c>
     </row>
     <row r="126">
@@ -2775,16 +2800,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C126" t="n">
         <v>1.25</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E126" t="n">
-        <v>0.035136418446315335</v>
+        <v>0.07331789961047835</v>
       </c>
     </row>
     <row r="127">
@@ -2792,16 +2817,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C127" t="n">
         <v>1.26</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E127" t="n">
-        <v>0.045360921162651446</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="128">
@@ -2809,7 +2834,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C128" t="n">
         <v>1.27</v>
@@ -2818,7 +2843,7 @@
         <v>0.22685185185185186</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04450227718777007</v>
+        <v>0.08857002995235642</v>
       </c>
     </row>
     <row r="129">
@@ -2826,16 +2851,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C129" t="n">
         <v>1.28</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="E129" t="n">
-        <v>0.06747198778606178</v>
+        <v>0.07027283689263067</v>
       </c>
     </row>
     <row r="130">
@@ -2843,16 +2868,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C130" t="n">
         <v>1.29</v>
       </c>
       <c r="D130" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E130" t="n">
-        <v>0.050967996090825494</v>
+        <v>0.05171940756951459</v>
       </c>
     </row>
     <row r="131">
@@ -2860,16 +2885,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C131" t="n">
         <v>1.3</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E131" t="n">
-        <v>0.04450227718777007</v>
+        <v>0.08561686115234689</v>
       </c>
     </row>
     <row r="132">
@@ -2877,16 +2902,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C132" t="n">
         <v>1.31</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E132" t="n">
-        <v>0.03828902431136173</v>
+        <v>0.09128709291752768</v>
       </c>
     </row>
     <row r="133">
@@ -2894,16 +2919,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C133" t="n">
         <v>1.32</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05270462766947298</v>
+        <v>0.0817755635771097</v>
       </c>
     </row>
     <row r="134">
@@ -2911,16 +2936,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C134" t="n">
         <v>1.33</v>
       </c>
       <c r="D134" t="n">
-        <v>0.25</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E134" t="n">
-        <v>0.060858061945018464</v>
+        <v>0.05936044601786892</v>
       </c>
     </row>
     <row r="135">
@@ -2928,16 +2953,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C135" t="n">
         <v>1.34</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E135" t="n">
-        <v>0.029133579115837555</v>
+        <v>0.06670523575676993</v>
       </c>
     </row>
     <row r="136">
@@ -2945,16 +2970,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C136" t="n">
         <v>1.35</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.20370370370370372</v>
       </c>
       <c r="E136" t="n">
-        <v>0.04564354645876385</v>
+        <v>0.07384222976806255</v>
       </c>
     </row>
     <row r="137">
@@ -2962,16 +2987,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C137" t="n">
         <v>1.36</v>
       </c>
       <c r="D137" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E137" t="n">
-        <v>0.06728111897994425</v>
+        <v>0.07384222976806254</v>
       </c>
     </row>
     <row r="138">
@@ -2979,16 +3004,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C138" t="n">
         <v>1.37</v>
       </c>
       <c r="D138" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03795166950355409</v>
+        <v>0.1009216784699164</v>
       </c>
     </row>
     <row r="139">
@@ -2996,16 +3021,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C139" t="n">
         <v>1.38</v>
       </c>
       <c r="D139" t="n">
-        <v>0.25</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E139" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.041820702928282286</v>
       </c>
     </row>
     <row r="140">
@@ -3013,16 +3038,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C140" t="n">
         <v>1.39</v>
       </c>
       <c r="D140" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02731089111806043</v>
+        <v>0.04784448401023635</v>
       </c>
     </row>
     <row r="141">
@@ -3030,16 +3055,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C141" t="n">
         <v>1.4</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03692111488403127</v>
+        <v>0.04784448401023635</v>
       </c>
     </row>
     <row r="142">
@@ -3047,16 +3072,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C142" t="n">
         <v>1.41</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0421270858002864</v>
+        <v>0.08177556357710969</v>
       </c>
     </row>
     <row r="143">
@@ -3064,16 +3089,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C143" t="n">
         <v>1.42</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E143" t="n">
-        <v>0.045643546458763846</v>
+        <v>0.07331789961047834</v>
       </c>
     </row>
     <row r="144">
@@ -3081,16 +3106,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C144" t="n">
         <v>1.43</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E144" t="n">
-        <v>0.020910351464141136</v>
+        <v>0.051967463705193624</v>
       </c>
     </row>
     <row r="145">
@@ -3098,16 +3123,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C145" t="n">
         <v>1.44</v>
       </c>
       <c r="D145" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E145" t="n">
-        <v>0.08130241266116736</v>
+        <v>0.0695369753908096</v>
       </c>
     </row>
     <row r="146">
@@ -3115,16 +3140,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C146" t="n">
         <v>1.45</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.19907407407407407</v>
       </c>
       <c r="E146" t="n">
-        <v>0.08425417160057279</v>
+        <v>0.05936044601786892</v>
       </c>
     </row>
     <row r="147">
@@ -3132,16 +3157,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C147" t="n">
         <v>1.46</v>
       </c>
       <c r="D147" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E147" t="n">
-        <v>0.05196746370519363</v>
+        <v>0.06435018649590392</v>
       </c>
     </row>
     <row r="148">
@@ -3149,16 +3174,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C148" t="n">
         <v>1.47</v>
       </c>
       <c r="D148" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.25</v>
       </c>
       <c r="E148" t="n">
-        <v>0.03692111488403128</v>
+        <v>0.06573421981221796</v>
       </c>
     </row>
     <row r="149">
@@ -3166,16 +3191,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C149" t="n">
         <v>1.48</v>
       </c>
       <c r="D149" t="n">
-        <v>0.28703703703703703</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E149" t="n">
-        <v>0.07590333900710815</v>
+        <v>0.08546652414232835</v>
       </c>
     </row>
     <row r="150">
@@ -3183,16 +3208,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C150" t="n">
         <v>1.49</v>
       </c>
       <c r="D150" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E150" t="n">
-        <v>0.03364055948997215</v>
+        <v>0.041820702928282286</v>
       </c>
     </row>
     <row r="151">
@@ -3200,16 +3225,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C151" t="n">
         <v>1.5</v>
       </c>
       <c r="D151" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E151" t="n">
-        <v>0.06747198778606178</v>
+        <v>0.07986614315869564</v>
       </c>
     </row>
   </sheetData>
